--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>83.03844637079042</v>
+        <v>89.78901919281805</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>14.82558681181366</v>
@@ -628,7 +628,7 @@
         <v>16.04963220033037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>60.76342154241423</v>
+        <v>65.7031563275043</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>4.178653654593925</v>
@@ -652,7 +652,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>88.24609446909537</v>
+        <v>91.3622396881984</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>3.56009176493773</v>
@@ -670,7 +670,7 @@
         <v>13.41585059773589</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>81.29061255337632</v>
+        <v>84.16114586354875</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>2.793515889223048</v>
@@ -694,7 +694,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>77.17632041894623</v>
+        <v>77.2086686402246</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>66.81238912731217</v>
@@ -712,7 +712,7 @@
         <v>24.18816038103119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>61.79593057809099</v>
+        <v>61.82183215548663</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>66.02443149350131</v>
@@ -736,7 +736,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>74.78093439009962</v>
+        <v>75.07660663569979</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>34.56130347477666</v>
@@ -754,7 +754,7 @@
         <v>40.08035845468081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>68.6513552074579</v>
+        <v>68.92279204524594</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>67.76841988388738</v>
+        <v>67.84331021159129</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>5.40321416957853</v>
@@ -796,7 +796,7 @@
         <v>41.84585723596884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>76.00233492738607</v>
+        <v>76.0863244874013</v>
       </c>
       <c r="I8" s="8" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>95.60292000463664</v>
+        <v>96.40996437070004</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>6.338331535448821</v>
@@ -880,7 +880,7 @@
         <v>54.11386800177811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>82.55435826670407</v>
+        <v>83.25125151776682</v>
       </c>
       <c r="I10" s="8" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>94.76822881745279</v>
+        <v>95.36887660432313</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>25.99991269333398</v>
@@ -922,7 +922,7 @@
         <v>29.95769448190097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>71.99667477237122</v>
+        <v>72.46514974761338</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>4.503780781385686</v>
@@ -946,7 +946,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>97.5445776357126</v>
+        <v>98.49025835124368</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>14.93852472031594</v>
@@ -964,7 +964,7 @@
         <v>17.55603917850011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>43.82916403874651</v>
+        <v>44.25408150944472</v>
       </c>
       <c r="I12" s="8" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>74.50960334456221</v>
+        <v>75.61265240939254</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>31.5181558556679</v>
@@ -1006,7 +1006,7 @@
         <v>27.28791738067023</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>46.82942598243223</v>
+        <v>47.52269439640553</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>14.40111087248936</v>
@@ -1030,7 +1030,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>98.45514455051632</v>
+        <v>98.53116904582204</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>28.37653045781574</v>
@@ -1048,7 +1048,7 @@
         <v>1.180835924044367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>85.59268093466891</v>
+        <v>85.65877337097206</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>46.57113770714658</v>
@@ -1072,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>97.95731390263211</v>
+        <v>98.26822457036312</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>22.93008856394676</v>
@@ -1090,7 +1090,7 @@
         <v>50.49587828093715</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59.47583204357863</v>
+        <v>59.66460478466161</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>10.86535570600242</v>
@@ -1114,7 +1114,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>87.20247183033636</v>
+        <v>87.56312296984335</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>43.35404680394501</v>
@@ -1132,7 +1132,7 @@
         <v>18.40990183370993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>72.99346701997671</v>
+        <v>73.29535269482936</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>0.3029524319209363</v>
@@ -1156,7 +1156,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>88.63430907486347</v>
+        <v>88.85482708469557</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3.127263941611889</v>
@@ -1174,7 +1174,7 @@
         <v>3.81663180369553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>66.30155738788888</v>
+        <v>66.47913224622444</v>
       </c>
       <c r="I17" s="8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>92.63637077979855</v>
+        <v>96.7536180870419</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>17.52496133821459</v>
@@ -1216,7 +1216,7 @@
         <v>19.28479125965163</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>91.78900131992822</v>
+        <v>95.86858707375013</v>
       </c>
       <c r="I18" s="8" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>99.57509992947857</v>
+        <v>99.57642877345305</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>98.90828111198626</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>98.1842752447689</v>
+        <v>98.18558552798871</v>
       </c>
       <c r="I19" s="6" t="n"/>
       <c r="J19" s="6" t="n"/>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>87.29282781828107</v>
+        <v>88.73532565881372</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>26.54050139689776</v>
@@ -1294,7 +1294,7 @@
         <v>25.19426472919021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>65.58748237539901</v>
+        <v>66.67212822202085</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>16.68249799461331</v>
@@ -1334,7 +1334,7 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
 from where they were reported.</t>
         </is>
       </c>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -1334,8 +1334,9 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
-from where they were reported.</t>
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>89.78901919281805</v>
+        <v>89.62602590419766</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>14.82558681181366</v>
@@ -736,7 +736,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>75.07660663569979</v>
+        <v>75.37525481742374</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>34.56130347477666</v>
@@ -820,7 +820,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>83.97875317138052</v>
+        <v>83.39239955741461</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2.258387509579761</v>
@@ -862,7 +862,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>96.40996437070004</v>
+        <v>95.4277012277519</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>6.338331535448821</v>
@@ -988,7 +988,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>75.61265240939254</v>
+        <v>75.55919705222209</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>31.5181558556679</v>
@@ -1114,7 +1114,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>87.56312296984335</v>
+        <v>87.7533240051394</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>43.35404680394501</v>
@@ -1156,7 +1156,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>88.85482708469557</v>
+        <v>88.25445330474213</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3.127263941611889</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>88.73532565881372</v>
+        <v>88.7077107191411</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>26.54050139689776</v>
+        <v>26.5227985651636</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>48.26523387391203</v>
+        <v>48.27161252266269</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>74.80573527080979</v>
+        <v>74.79441108782629</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25.19426472919021</v>
+        <v>25.2055889121737</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>66.67212822202085</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -862,22 +862,22 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>95.4277012277519</v>
+        <v>95.38283744105355</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6.338331535448821</v>
+        <v>6.341402055340052</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39.54780046277306</v>
+        <v>39.51851520369351</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45.88613199822188</v>
+        <v>45.85991725903357</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54.11386800177811</v>
+        <v>54.14008274096643</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>83.25125151776682</v>
@@ -904,22 +904,22 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>95.36887660432313</v>
+        <v>95.35980609945506</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>72.46514974761338</v>
@@ -946,22 +946,22 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>98.49025835124368</v>
+        <v>98.4871602932466</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>14.93852472031594</v>
+        <v>14.93902192521486</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>67.50543610118396</v>
+        <v>67.50435457160448</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>82.4439608214999</v>
+        <v>82.44337649681934</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>17.55603917850011</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>44.25408150944472</v>
@@ -1072,22 +1072,22 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>98.26822457036312</v>
+        <v>98.26681293112539</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22.93008856394676</v>
+        <v>22.93056935485755</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26.5740331551161</v>
+        <v>26.57459035111507</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49.50412171906286</v>
+        <v>49.50515970597262</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>50.49587828093715</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>59.66460478466161</v>
@@ -1114,22 +1114,22 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>87.7533240051394</v>
+        <v>87.65426515699606</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>43.35404680394501</v>
+        <v>43.27108330943184</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>38.23605136234505</v>
+        <v>38.29205176940727</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>81.59009816629006</v>
+        <v>81.56313507883911</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>18.40990183370993</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>73.29535269482936</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>88.7077107191411</v>
+        <v>88.70339407047719</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>26.5227985651636</v>
+        <v>26.52088558783935</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>48.27161252266269</v>
+        <v>48.27323632967825</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>74.79441108782629</v>
+        <v>74.7941219175176</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25.2055889121737</v>
+        <v>25.2058780824824</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>66.67212822202085</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,22 +610,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>89.62602590419766</v>
+        <v>92.31243281328341</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>14.82558681181366</v>
+        <v>15.10956701022704</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>69.12478098785597</v>
+        <v>69.04212945962217</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>83.95036779966964</v>
+        <v>84.15169646984921</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>16.04963220033037</v>
+        <v>15.84830353015079</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>65.7031563275043</v>
@@ -652,25 +652,25 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>91.3622396881984</v>
+        <v>91.36211995779584</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>3.56009176493773</v>
+        <v>3.560091977063498</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>83.02405763732639</v>
+        <v>83.02406258426124</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>86.58414940226412</v>
+        <v>86.58415456132474</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>13.41585059773589</v>
+        <v>13.41584543867526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>84.16114586354875</v>
+        <v>84.16103557019441</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>2.793515889223048</v>
@@ -862,7 +862,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>95.38283744105355</v>
+        <v>95.33920971283109</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>6.341402055340052</v>
@@ -904,7 +904,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>95.35980609945506</v>
+        <v>95.35073559458699</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>25.99140387354132</v>
@@ -946,7 +946,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>98.4871602932466</v>
+        <v>98.48406223524952</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>14.93902192521486</v>
@@ -988,7 +988,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>75.55919705222209</v>
+        <v>75.5966977831971</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>31.5181558556679</v>
@@ -1072,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>98.26681293112539</v>
+        <v>98.26540129188768</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>22.93056935485755</v>
@@ -1114,7 +1114,7 @@
         <v>77</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>87.65426515699606</v>
+        <v>87.55520630885273</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>43.27108330943184</v>
@@ -1156,7 +1156,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>88.25445330474213</v>
+        <v>88.25445330474211</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3.127263941611889</v>
@@ -1276,25 +1276,25 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>88.70339407047719</v>
+        <v>88.76230889935026</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>26.52088558783935</v>
+        <v>26.64723565892969</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>48.27323632967825</v>
+        <v>48.37613624522655</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>74.7941219175176</v>
+        <v>75.02337190415625</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>25.2058780824824</v>
+        <v>24.97662809584376</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>66.67212822202085</v>
+        <v>66.67211941872959</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>16.68249799461331</v>
@@ -1334,8 +1334,8 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
-Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,22 +610,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>92.31243281328341</v>
+        <v>93.462218161873</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>15.10956701022704</v>
+        <v>14.21521773880041</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>69.04212945962217</v>
+        <v>68.95707718957658</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>84.15169646984921</v>
+        <v>83.17229492837699</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>15.84830353015079</v>
+        <v>16.82770507162302</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>65.7031563275043</v>
@@ -652,22 +652,22 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>91.36211995779584</v>
+        <v>91.36174762834042</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>3.560091977063498</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>83.02406258426124</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>86.58415456132474</v>
+        <v>86.58409431345969</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>13.41584543867526</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>84.16103557019441</v>
@@ -862,22 +862,22 @@
         <v>47</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>95.33920971283109</v>
+        <v>95.33920971283108</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6.341402055340052</v>
+        <v>6.332521257555844</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39.51851520369351</v>
+        <v>39.53851405642543</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45.85991725903357</v>
+        <v>45.87103531398127</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54.14008274096643</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>83.25125151776682</v>
@@ -988,22 +988,22 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>75.5966977831971</v>
+        <v>75.59669778319709</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>31.5181558556679</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>41.19392676366186</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>72.71208261932976</v>
+        <v>72.63206455242835</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>27.28791738067023</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>47.52269439640553</v>
@@ -1072,7 +1072,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>98.26540129188768</v>
+        <v>84.92487919070578</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>22.93056935485755</v>
@@ -1245,10 +1245,10 @@
         <v>99.57642877345305</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>0</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>88.76230889935026</v>
+        <v>86.54236240117649</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>26.64723565892969</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>48.37613624522655</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>24.97662809584376</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>75.02337190415625</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>24.97662809584376</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>66.67211941872959</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -1334,7 +1334,7 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
 Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -122,7 +122,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -493,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,8 +521,7 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -587,653 +585,640 @@
           <t>Unsustainable (%)</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <v>93.462218161873</v>
-      </c>
-      <c r="C4" s="6" t="n">
+      <c r="B4" s="5" t="n">
+        <v>93.596662260502</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>14.21521773880041</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>68.95707718957658</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>16.82770507162302</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>83.17229492837699</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>16.82770507162302</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>65.7031563275043</v>
-      </c>
-      <c r="I4" s="6" t="n">
+      <c r="H4" s="5" t="n">
+        <v>65.71529919139962</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>4.178653654593925</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>85.55454704186324</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="5" t="n">
         <v>10.26679930354283</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>89.73320069645717</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>10.26679930354283</v>
       </c>
-      <c r="N4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>91.36174762834042</v>
-      </c>
-      <c r="C5" s="6" t="n">
+      <c r="B5" s="5" t="n">
+        <v>91.30191835637562</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>3.560106383556024</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>83.02398792990367</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>13.41590568654031</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>86.58409431345969</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>13.41590568654031</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>84.16103557019441</v>
-      </c>
-      <c r="I5" s="6" t="n">
+      <c r="H5" s="5" t="n">
+        <v>84.15085075371101</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>2.793515889223048</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>78.97819935291929</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="5" t="n">
         <v>18.22828475785768</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>81.77171524214234</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>18.22828475785768</v>
       </c>
-      <c r="N5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>77.2086686402246</v>
-      </c>
-      <c r="C6" s="6" t="n">
+      <c r="B6" s="5" t="n">
+        <v>76.22896530311566</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>66.81238912731217</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>8.99945049165663</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>24.18816038103119</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>75.8118396189688</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>24.18816038103119</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>61.82183215548663</v>
-      </c>
-      <c r="I6" s="6" t="n">
+      <c r="H6" s="5" t="n">
+        <v>60.17374999828196</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>66.02443149350131</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="5" t="n">
         <v>26.49745957189513</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="5" t="n">
         <v>7.478108934603554</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>92.52189106539645</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>7.478108934603554</v>
       </c>
-      <c r="N6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>75.37525481742374</v>
-      </c>
-      <c r="C7" s="6" t="n">
+      <c r="B7" s="5" t="n">
+        <v>73.70853227765006</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>34.56130347477666</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="5" t="n">
         <v>25.35833807054252</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5" t="n">
         <v>40.08035845468081</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>59.91964154531919</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>40.08035845468081</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>68.92279204524594</v>
-      </c>
-      <c r="I7" s="8" t="n">
+      <c r="H7" s="5" t="n">
+        <v>67.13708455060036</v>
+      </c>
+      <c r="I7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="5" t="n">
         <v>36.54353756634912</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="5" t="n">
         <v>63.45646243365088</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="5" t="n">
         <v>36.54353756634912</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>63.45646243365088</v>
       </c>
-      <c r="N7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>67.84331021159129</v>
-      </c>
-      <c r="C8" s="6" t="n">
+      <c r="B8" s="5" t="n">
+        <v>67.06709270037017</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>5.40321416957853</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>52.75092859445264</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5" t="n">
         <v>41.84585723596884</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>58.15414276403117</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>41.84585723596884</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>76.0863244874013</v>
-      </c>
-      <c r="I8" s="8" t="n">
+      <c r="H8" s="5" t="n">
+        <v>75.51820985067206</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="5" t="n">
         <v>45.57057915341151</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="5" t="n">
         <v>54.42942084658849</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="5" t="n">
         <v>45.57057915341151</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="5" t="n">
         <v>54.42942084658849</v>
       </c>
-      <c r="N8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>83.39239955741461</v>
-      </c>
-      <c r="C9" s="6" t="n">
+      <c r="B9" s="5" t="n">
+        <v>83.64175756898143</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>2.258387509579761</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="5" t="n">
         <v>66.76071367383751</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>30.98089881658274</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>69.01910118341728</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>30.98089881658274</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>69.58747472592115</v>
-      </c>
-      <c r="I9" s="6" t="n">
+      <c r="H9" s="5" t="n">
+        <v>69.59232215400029</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>0.6662419330782445</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="5" t="n">
         <v>72.60959288245593</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="5" t="n">
         <v>26.72416518446582</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>73.27583481553417</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>26.72416518446582</v>
       </c>
-      <c r="N9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>95.33920971283108</v>
-      </c>
-      <c r="C10" s="6" t="n">
+      <c r="B10" s="5" t="n">
+        <v>95.16461845900706</v>
+      </c>
+      <c r="C10" s="5" t="n">
         <v>6.332521257555844</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="5" t="n">
         <v>39.53851405642543</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="5" t="n">
         <v>54.12896468601873</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="5" t="n">
         <v>45.87103531398127</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>54.12896468601873</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>83.25125151776682</v>
-      </c>
-      <c r="I10" s="8" t="n">
+      <c r="H10" s="5" t="n">
+        <v>82.7895205460501</v>
+      </c>
+      <c r="I10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="5" t="n">
         <v>75.62482668304796</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="5" t="n">
         <v>24.37517331695205</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="5" t="n">
         <v>75.62482668304796</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="5" t="n">
         <v>24.37517331695205</v>
       </c>
-      <c r="N10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>95.35073559458699</v>
-      </c>
-      <c r="C11" s="6" t="n">
+      <c r="B11" s="5" t="n">
+        <v>94.42726519032928</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>25.99140387354132</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="5" t="n">
         <v>44.04745699154409</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="5" t="n">
         <v>29.9611391349146</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="5" t="n">
         <v>70.03886086508541</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>29.9611391349146</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>72.46514974761338</v>
-      </c>
-      <c r="I11" s="6" t="n">
+      <c r="H11" s="5" t="n">
+        <v>67.0579398677236</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>4.503780781385686</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="5" t="n">
         <v>37.86560568152591</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="5" t="n">
         <v>57.63061353708841</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="5" t="n">
         <v>42.36938646291159</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="5" t="n">
         <v>57.63061353708841</v>
       </c>
-      <c r="N11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>98.48406223524952</v>
-      </c>
-      <c r="C12" s="6" t="n">
+      <c r="B12" s="5" t="n">
+        <v>98.39426258134667</v>
+      </c>
+      <c r="C12" s="5" t="n">
         <v>14.93902192521486</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="5" t="n">
         <v>67.50435457160448</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="5" t="n">
         <v>17.55662350318067</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="5" t="n">
         <v>82.44337649681934</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="5" t="n">
         <v>17.55662350318067</v>
       </c>
-      <c r="H12" s="6" t="n">
-        <v>44.25408150944472</v>
-      </c>
-      <c r="I12" s="8" t="n">
+      <c r="H12" s="5" t="n">
+        <v>41.07210094153253</v>
+      </c>
+      <c r="I12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="5" t="n">
         <v>71.88077204974773</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="5" t="n">
         <v>28.11922795025227</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="5" t="n">
         <v>71.88077204974773</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="5" t="n">
         <v>28.11922795025227</v>
       </c>
-      <c r="N12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>75.59669778319709</v>
-      </c>
-      <c r="C13" s="6" t="n">
+      <c r="B13" s="5" t="n">
+        <v>76.13497089130404</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>31.35428380642543</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="5" t="n">
         <v>41.27778074600292</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="5" t="n">
         <v>27.36793544757166</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="5" t="n">
         <v>72.63206455242835</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="5" t="n">
         <v>27.36793544757166</v>
       </c>
-      <c r="H13" s="6" t="n">
-        <v>47.52269439640553</v>
-      </c>
-      <c r="I13" s="6" t="n">
+      <c r="H13" s="5" t="n">
+        <v>47.77801794459297</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>14.40111087248936</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="5" t="n">
         <v>32.53381447256196</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="5" t="n">
         <v>53.06507465494869</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="5" t="n">
         <v>46.93492534505131</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="5" t="n">
         <v>53.06507465494869</v>
       </c>
-      <c r="N13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>98.53116904582204</v>
-      </c>
-      <c r="C14" s="6" t="n">
+      <c r="B14" s="5" t="n">
+        <v>98.3103602578468</v>
+      </c>
+      <c r="C14" s="5" t="n">
         <v>28.37653045781574</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="5" t="n">
         <v>70.44263361813991</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="5" t="n">
         <v>1.180835924044367</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="5" t="n">
         <v>98.81916407595565</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="5" t="n">
         <v>1.180835924044367</v>
       </c>
-      <c r="H14" s="6" t="n">
-        <v>85.65877337097206</v>
-      </c>
-      <c r="I14" s="6" t="n">
+      <c r="H14" s="5" t="n">
+        <v>98.30745974294956</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>46.57113770714658</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="5" t="n">
         <v>45.99390214674801</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="5" t="n">
         <v>7.434960146105405</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="5" t="n">
         <v>92.56503985389459</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="5" t="n">
         <v>7.434960146105405</v>
       </c>
-      <c r="N14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>84.92487919070578</v>
-      </c>
-      <c r="C15" s="6" t="n">
+      <c r="B15" s="5" t="n">
+        <v>82.01704992973568</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>22.93056935485755</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="5" t="n">
         <v>26.57459035111507</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="5" t="n">
         <v>50.49484029402739</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="5" t="n">
         <v>49.50515970597262</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="5" t="n">
         <v>50.49484029402739</v>
       </c>
-      <c r="H15" s="6" t="n">
-        <v>59.66460478466161</v>
-      </c>
-      <c r="I15" s="6" t="n">
+      <c r="H15" s="5" t="n">
+        <v>51.24592796197229</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>10.86535570600242</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="5" t="n">
         <v>68.14747816632524</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="5" t="n">
         <v>20.98716612767233</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="5" t="n">
         <v>79.01283387232766</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="5" t="n">
         <v>20.98716612767233</v>
       </c>
-      <c r="N15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <v>87.55520630885273</v>
-      </c>
-      <c r="C16" s="6" t="n">
+      <c r="B16" s="5" t="n">
+        <v>85.73938355045522</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>43.27108330943184</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="5" t="n">
         <v>38.29205176940727</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="5" t="n">
         <v>18.43686492116091</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="5" t="n">
         <v>81.56313507883911</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="5" t="n">
         <v>18.43686492116091</v>
       </c>
-      <c r="H16" s="6" t="n">
-        <v>73.29535269482936</v>
-      </c>
-      <c r="I16" s="6" t="n">
+      <c r="H16" s="5" t="n">
+        <v>68.09093779373245</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>0.3029524319209363</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="5" t="n">
         <v>99.22591710495661</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="5" t="n">
         <v>0.4711304631224666</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="5" t="n">
         <v>99.52886953687755</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="5" t="n">
         <v>0.4711304631224666</v>
       </c>
-      <c r="N16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>88.25445330474211</v>
-      </c>
-      <c r="C17" s="6" t="n">
+      <c r="B17" s="5" t="n">
+        <v>89.77631277166559</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>3.127263941611889</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="5" t="n">
         <v>93.05610425469258</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="5" t="n">
         <v>3.81663180369553</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="5" t="n">
         <v>96.18336819630447</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="5" t="n">
         <v>3.81663180369553</v>
       </c>
-      <c r="H17" s="6" t="n">
-        <v>66.47913224622444</v>
-      </c>
-      <c r="I17" s="8" t="n">
+      <c r="H17" s="5" t="n">
+        <v>66.79780401364637</v>
+      </c>
+      <c r="I17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="5" t="n">
         <v>97.33459079790329</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="5" t="n">
         <v>2.665409202096719</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="5" t="n">
         <v>97.33459079790329</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="5" t="n">
         <v>2.665409202096719</v>
       </c>
-      <c r="N17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>96.7536180870419</v>
-      </c>
-      <c r="C18" s="6" t="n">
+      <c r="B18" s="5" t="n">
+        <v>96.6057775981145</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>17.52496133821459</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="5" t="n">
         <v>63.19024740213378</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="5" t="n">
         <v>19.28479125965163</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="5" t="n">
         <v>80.71520874034837</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="5" t="n">
         <v>19.28479125965163</v>
       </c>
-      <c r="H18" s="6" t="n">
-        <v>95.86858707375013</v>
-      </c>
-      <c r="I18" s="8" t="n">
+      <c r="H18" s="5" t="n">
+        <v>95.87694141841631</v>
+      </c>
+      <c r="I18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="5" t="n">
         <v>82.87427727893572</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="5" t="n">
         <v>17.12572272106429</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="5" t="n">
         <v>82.87427727893572</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="5" t="n">
         <v>17.12572272106429</v>
       </c>
-      <c r="N18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1241,109 +1226,184 @@
           <t>48,58,88</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n">
-        <v>99.57642877345305</v>
-      </c>
-      <c r="C19" s="6" t="n">
+      <c r="B19" s="5" t="n">
+        <v>99.57643907470766</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <v>98.47978014980617</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="5" t="n">
         <v>1.520219850193832</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H19" s="6" t="n">
-        <v>98.18558552798871</v>
-      </c>
-      <c r="I19" s="6" t="n"/>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="n"/>
-      <c r="L19" s="6" t="n"/>
-      <c r="M19" s="6" t="n"/>
-      <c r="N19" s="6" t="n"/>
+      <c r="H19" s="5" t="n">
+        <v>98.18559568535957</v>
+      </c>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>86.54236240117649</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>26.6068726388459</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>48.41272755377884</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>24.98039980737526</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>75.01960019262474</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>24.98039980737526</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>66.67211941872959</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>16.68249799461331</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>57.47900742991248</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>25.8384945754742</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>74.16150542452579</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>25.8384945754742</v>
-      </c>
-      <c r="N20" s="6" t="n"/>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>19.7353802540078</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>70.87896192485682</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>90.61434217886463</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="5" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Footnote</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="6" t="n"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="6" t="n"/>
-      <c r="I21" s="6" t="n"/>
-      <c r="J21" s="6" t="n"/>
-      <c r="K21" s="6" t="n"/>
-      <c r="L21" s="6" t="n"/>
-      <c r="M21" s="6" t="n"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
-Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
-except for stocks from these groups which are included in the assessment.</t>
-        </is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>63.87449876656093</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>49.92385831271513</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>38.86139379735091</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.21474788993398</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>88.78525211006604</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>11.21474788993398</v>
+      </c>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>96.03160936053438</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>82.48608869170148</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>16.79627658845249</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>99.28236528015397</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>96.0316093605344</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>82.48608869170148</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>16.79627658845249</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>99.28236528015397</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>86.54244178696908</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>26.6068726388459</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>48.41272755377884</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>24.98039980737526</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>75.01960019262474</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>24.98039980737526</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>67.05473957142843</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>16.68249799461331</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>57.47900742991248</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>25.8384945754742</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>74.16150542452579</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>25.8384945754742</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="H1:N1"/>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,22 +610,22 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>93.596662260502</v>
+        <v>93.59801935506124</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>14.21521773880041</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>68.95707718957658</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83.17229492837699</v>
+        <v>83.16379349054299</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>16.82770507162302</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>65.71529919139962</v>
@@ -774,22 +774,22 @@
         <v>37</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>67.06709270037017</v>
+        <v>66.73111244338112</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.40321416957853</v>
+        <v>5.389935808021984</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>52.75092859445264</v>
+        <v>53.64100303270093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58.15414276403117</v>
+        <v>59.03093884072291</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>41.84585723596884</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>75.51820985067206</v>
@@ -1146,19 +1146,19 @@
         <v>89.77631277166559</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.127263941611889</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>93.05610425469258</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96.18336819630447</v>
+        <v>96.17915289757551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.81663180369553</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>66.79780401364637</v>
@@ -1365,22 +1365,22 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>86.54244178696908</v>
+        <v>86.53782880214311</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>26.6068726388459</v>
+        <v>26.60785508826232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>48.41272755377884</v>
+        <v>48.42178506433056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75.01960019262474</v>
+        <v>75.02964015259288</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>24.98039980737526</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>67.05473957142843</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,77 +510,65 @@
       <c r="C1" s="2" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
       <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -602,47 +590,39 @@
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-      <c r="M3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>93.59801935506124</v>
+        <v>14.21501162979527</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>14.21501162979527</v>
+        <v>68.94878186074772</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>68.94878186074772</v>
+        <v>16.83620650945702</v>
       </c>
       <c r="E4" s="5" t="n">
+        <v>83.16379349054299</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>16.83620650945702</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>83.16379349054299</v>
-      </c>
       <c r="G4" s="5" t="n">
-        <v>16.83620650945702</v>
+        <v>4.178653654593925</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>65.71529919139962</v>
+        <v>85.55454704186324</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>4.178653654593925</v>
+        <v>10.26679930354283</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>85.55454704186324</v>
+        <v>89.73320069645717</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.26679930354283</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>89.73320069645717</v>
-      </c>
-      <c r="M4" s="5" t="n">
         <v>10.26679930354283</v>
       </c>
     </row>
@@ -651,40 +631,34 @@
         <v>27</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>91.30191835637562</v>
+        <v>3.560106383556024</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.560106383556024</v>
+        <v>83.02398792990367</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>83.02398792990367</v>
+        <v>13.41590568654031</v>
       </c>
       <c r="E5" s="5" t="n">
+        <v>86.58409431345969</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>13.41590568654031</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>86.58409431345969</v>
-      </c>
       <c r="G5" s="5" t="n">
-        <v>13.41590568654031</v>
+        <v>2.793232987766152</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>84.15085075371101</v>
+        <v>78.97560440655828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.793515889223048</v>
+        <v>18.23116260567558</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>78.97819935291929</v>
+        <v>81.76883739432442</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.22828475785768</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>81.77171524214234</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>18.22828475785768</v>
+        <v>18.23116260567558</v>
       </c>
     </row>
     <row r="6">
@@ -692,40 +666,34 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>76.22896530311566</v>
+        <v>66.81238912731217</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>66.81238912731217</v>
+        <v>8.99945049165663</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.99945049165663</v>
+        <v>24.18816038103119</v>
       </c>
       <c r="E6" s="5" t="n">
+        <v>75.8118396189688</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>24.18816038103119</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>75.8118396189688</v>
-      </c>
       <c r="G6" s="5" t="n">
-        <v>24.18816038103119</v>
+        <v>52.16140789916761</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>60.17374999828196</v>
+        <v>33.17522117054031</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>66.02443149350131</v>
+        <v>14.66337093029206</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.49745957189513</v>
+        <v>85.33662906970793</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.478108934603554</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>92.52189106539645</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>7.478108934603554</v>
+        <v>14.66337093029206</v>
       </c>
     </row>
     <row r="7">
@@ -733,40 +701,34 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>73.70853227765006</v>
+        <v>34.56130347477666</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>34.56130347477666</v>
+        <v>25.35833807054252</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>25.35833807054252</v>
+        <v>40.08035845468081</v>
       </c>
       <c r="E7" s="5" t="n">
+        <v>59.91964154531919</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>40.08035845468081</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>59.91964154531919</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>40.08035845468081</v>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>67.13708455060036</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
+        <v>36.59405010464138</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>63.40594989535864</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>36.54353756634912</v>
+        <v>36.59405010464138</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>63.45646243365088</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>36.54353756634912</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>63.45646243365088</v>
+        <v>63.40594989535864</v>
       </c>
     </row>
     <row r="8">
@@ -774,40 +736,34 @@
         <v>37</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>66.73111244338112</v>
+        <v>5.389935808021984</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.389935808021984</v>
+        <v>53.64100303270093</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>53.64100303270093</v>
+        <v>40.96906115927708</v>
       </c>
       <c r="E8" s="5" t="n">
+        <v>59.03093884072291</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>40.96906115927708</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>59.03093884072291</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>40.96906115927708</v>
+      <c r="G8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>75.51820985067206</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
+        <v>45.45285902814433</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>54.54714097185567</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>45.57057915341151</v>
+        <v>45.45285902814433</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>54.42942084658849</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>45.57057915341151</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>54.42942084658849</v>
+        <v>54.54714097185567</v>
       </c>
     </row>
     <row r="9">
@@ -815,40 +771,34 @@
         <v>41</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>83.64175756898143</v>
+        <v>2.258387509579761</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.258387509579761</v>
+        <v>66.76071367383751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>66.76071367383751</v>
+        <v>30.98089881658274</v>
       </c>
       <c r="E9" s="5" t="n">
+        <v>69.01910118341728</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>30.98089881658274</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>69.01910118341728</v>
-      </c>
       <c r="G9" s="5" t="n">
-        <v>30.98089881658274</v>
+        <v>0.6639035696703423</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>69.59232215400029</v>
+        <v>72.70572721827489</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6662419330782445</v>
+        <v>26.63036921205477</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>72.60959288245593</v>
+        <v>73.36963078794523</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>26.72416518446582</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>73.27583481553417</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>26.72416518446582</v>
+        <v>26.63036921205477</v>
       </c>
     </row>
     <row r="10">
@@ -856,40 +806,34 @@
         <v>47</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>95.16461845900706</v>
+        <v>6.332521257555844</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.332521257555844</v>
+        <v>39.53851405642543</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>39.53851405642543</v>
+        <v>54.12896468601873</v>
       </c>
       <c r="E10" s="5" t="n">
+        <v>45.87103531398127</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>54.12896468601873</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>45.87103531398127</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>54.12896468601873</v>
+      <c r="G10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>82.7895205460501</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
+        <v>76.6714706378159</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>23.3285293621841</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>75.62482668304796</v>
+        <v>76.6714706378159</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>24.37517331695205</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>75.62482668304796</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>24.37517331695205</v>
+        <v>23.3285293621841</v>
       </c>
     </row>
     <row r="11">
@@ -897,40 +841,34 @@
         <v>51</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>94.42726519032928</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.99140387354132</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>44.04745699154409</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="E11" s="5" t="n">
+        <v>70.03886086508541</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>29.9611391349146</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>70.03886086508541</v>
-      </c>
       <c r="G11" s="5" t="n">
-        <v>29.9611391349146</v>
+        <v>7.308967266794347</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>67.0579398677236</v>
+        <v>70.41632166162654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.503780781385686</v>
+        <v>22.27471107157911</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>37.86560568152591</v>
+        <v>77.72528892842089</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>57.63061353708841</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>42.36938646291159</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>57.63061353708841</v>
+        <v>22.27471107157911</v>
       </c>
     </row>
     <row r="12">
@@ -938,40 +876,34 @@
         <v>57</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>98.39426258134667</v>
+        <v>14.93902192521486</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.93902192521486</v>
+        <v>67.50435457160448</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>67.50435457160448</v>
+        <v>17.55662350318067</v>
       </c>
       <c r="E12" s="5" t="n">
+        <v>82.44337649681934</v>
+      </c>
+      <c r="F12" s="5" t="n">
         <v>17.55662350318067</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>82.44337649681934</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>17.55662350318067</v>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>41.07210094153253</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>0</v>
+        <v>76.81229094059265</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>23.18770905940735</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>71.88077204974773</v>
+        <v>76.81229094059265</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>28.11922795025227</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>71.88077204974773</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>28.11922795025227</v>
+        <v>23.18770905940735</v>
       </c>
     </row>
     <row r="13">
@@ -979,40 +911,34 @@
         <v>61</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>76.13497089130404</v>
+        <v>31.35428380642543</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>31.35428380642543</v>
+        <v>41.27778074600292</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>41.27778074600292</v>
+        <v>27.36793544757166</v>
       </c>
       <c r="E13" s="5" t="n">
+        <v>72.63206455242835</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>27.36793544757166</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>72.63206455242835</v>
-      </c>
       <c r="G13" s="5" t="n">
-        <v>27.36793544757166</v>
+        <v>12.7964975153495</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>47.77801794459297</v>
+        <v>40.05109167507333</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>14.40111087248936</v>
+        <v>47.15241080957718</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>32.53381447256196</v>
+        <v>52.84758919042283</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>53.06507465494869</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>46.93492534505131</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>53.06507465494869</v>
+        <v>47.15241080957718</v>
       </c>
     </row>
     <row r="14">
@@ -1020,40 +946,34 @@
         <v>67</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>98.3103602578468</v>
+        <v>28.37653045781574</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>28.37653045781574</v>
+        <v>70.44263361813991</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>70.44263361813991</v>
+        <v>1.180835924044367</v>
       </c>
       <c r="E14" s="5" t="n">
+        <v>98.81916407595565</v>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>1.180835924044367</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>98.81916407595565</v>
-      </c>
       <c r="G14" s="5" t="n">
-        <v>1.180835924044367</v>
+        <v>47.09360415973406</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>98.30745974294956</v>
+        <v>45.5390362139465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>46.57113770714658</v>
+        <v>7.367359626319428</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>45.99390214674801</v>
+        <v>92.63264037368054</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.434960146105405</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>92.56503985389459</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>7.434960146105405</v>
+        <v>7.367359626319428</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +981,34 @@
         <v>71</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>82.01704992973568</v>
+        <v>22.93056935485755</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.93056935485755</v>
+        <v>26.57459035111507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.57459035111507</v>
+        <v>50.49484029402739</v>
       </c>
       <c r="E15" s="5" t="n">
+        <v>49.50515970597262</v>
+      </c>
+      <c r="F15" s="5" t="n">
         <v>50.49484029402739</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>49.50515970597262</v>
-      </c>
       <c r="G15" s="5" t="n">
-        <v>50.49484029402739</v>
+        <v>14.49764598505068</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>51.24592796197229</v>
+        <v>46.91928576211414</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.86535570600242</v>
+        <v>38.58306825283518</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>68.14747816632524</v>
+        <v>61.41693174716481</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>20.98716612767233</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>79.01283387232766</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>20.98716612767233</v>
+        <v>38.58306825283518</v>
       </c>
     </row>
     <row r="16">
@@ -1102,40 +1016,34 @@
         <v>77</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>85.73938355045522</v>
+        <v>43.27108330943184</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>43.27108330943184</v>
+        <v>38.29205176940727</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>38.29205176940727</v>
+        <v>18.43686492116091</v>
       </c>
       <c r="E16" s="5" t="n">
+        <v>81.56313507883911</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>18.43686492116091</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>81.56313507883911</v>
-      </c>
       <c r="G16" s="5" t="n">
-        <v>18.43686492116091</v>
+        <v>0.1602506719951143</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>68.09093779373245</v>
+        <v>98.80763324517071</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.3029524319209363</v>
+        <v>1.03211608283418</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>99.22591710495661</v>
+        <v>98.96788391716582</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4711304631224666</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>99.52886953687755</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0.4711304631224666</v>
+        <v>1.03211608283418</v>
       </c>
     </row>
     <row r="17">
@@ -1143,40 +1051,34 @@
         <v>81</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>89.77631277166559</v>
+        <v>3.12626543235536</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.12626543235536</v>
+        <v>93.05288746522015</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>93.05288746522015</v>
+        <v>3.820847102424483</v>
       </c>
       <c r="E17" s="5" t="n">
+        <v>96.17915289757551</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>3.820847102424483</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>96.17915289757551</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>3.820847102424483</v>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>66.79780401364637</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>0</v>
+        <v>97.26179956602434</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>2.738200433975654</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>97.33459079790329</v>
+        <v>97.26179956602434</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.665409202096719</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>97.33459079790329</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>2.665409202096719</v>
+        <v>2.738200433975654</v>
       </c>
     </row>
     <row r="18">
@@ -1184,28 +1086,28 @@
         <v>87</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>96.6057775981145</v>
+        <v>17.52496133821459</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.52496133821459</v>
+        <v>63.19024740213378</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>63.19024740213378</v>
+        <v>19.28479125965163</v>
       </c>
       <c r="E18" s="5" t="n">
+        <v>80.71520874034837</v>
+      </c>
+      <c r="F18" s="5" t="n">
         <v>19.28479125965163</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>80.71520874034837</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>19.28479125965163</v>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>95.87694141841631</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>0</v>
+        <v>82.87427727893572</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>17.12572272106429</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82.87427727893572</v>
@@ -1213,12 +1115,6 @@
       <c r="K18" s="5" t="n">
         <v>17.12572272106429</v>
       </c>
-      <c r="L18" s="5" t="n">
-        <v>82.87427727893572</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>17.12572272106429</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1227,31 +1123,25 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>99.57643907470766</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>98.47978014980617</v>
-      </c>
-      <c r="D19" s="5" t="n">
         <v>1.520219850193832</v>
       </c>
+      <c r="D19" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>98.18559568535957</v>
-      </c>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
       <c r="I19" s="5" t="n"/>
       <c r="J19" s="5" t="n"/>
       <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1259,30 +1149,26 @@
           <t>Salmon</t>
         </is>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>100</v>
+      <c r="B20" s="5" t="n">
+        <v>19.7353802540078</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>19.7353802540078</v>
+        <v>70.87896192485682</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>70.87896192485682</v>
+        <v>9.38565782113537</v>
       </c>
       <c r="E20" s="5" t="n">
+        <v>90.61434217886463</v>
+      </c>
+      <c r="F20" s="5" t="n">
         <v>9.38565782113537</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>90.61434217886463</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>9.38565782113537</v>
-      </c>
+      <c r="G20" s="5" t="n"/>
       <c r="H20" s="5" t="n"/>
       <c r="I20" s="5" t="n"/>
       <c r="J20" s="5" t="n"/>
       <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1291,29 +1177,25 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>63.87449876656093</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>49.92385831271513</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>38.86139379735091</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="E21" s="5" t="n">
+        <v>88.78525211006604</v>
+      </c>
+      <c r="F21" s="5" t="n">
         <v>11.21474788993398</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>88.78525211006604</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>11.21474788993398</v>
-      </c>
+      <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
       <c r="I21" s="5" t="n"/>
       <c r="J21" s="5" t="n"/>
       <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1322,41 +1204,35 @@
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>96.03160936053438</v>
+        <v>82.48608869170148</v>
       </c>
       <c r="C22" s="5" t="n">
+        <v>16.79627658845249</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>99.28236528015397</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7176347198460232</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>82.48608869170148</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>16.79627658845249</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="I22" s="5" t="n">
         <v>0.7176347198460232</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="J22" s="5" t="n">
         <v>99.28236528015397</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.7176347198460232</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>96.0316093605344</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>82.48608869170148</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>16.79627658845249</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.7176347198460232</v>
       </c>
-      <c r="L22" s="5" t="n">
-        <v>99.28236528015397</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0.7176347198460232</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1365,46 +1241,40 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>86.53782880214311</v>
+        <v>26.60785508826232</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>26.60785508826232</v>
+        <v>48.42178506433056</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>48.42178506433056</v>
+        <v>24.97035984740713</v>
       </c>
       <c r="E23" s="5" t="n">
+        <v>75.02964015259288</v>
+      </c>
+      <c r="F23" s="5" t="n">
         <v>24.97035984740713</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <v>75.02964015259288</v>
-      </c>
       <c r="G23" s="5" t="n">
-        <v>24.97035984740713</v>
+        <v>16.75654037352567</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>67.05473957142843</v>
+        <v>58.22911728108837</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>16.68249799461331</v>
+        <v>25.01434234538596</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>57.47900742991248</v>
+        <v>74.98565765461404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.8384945754742</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>74.16150542452579</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>25.8384945754742</v>
+        <v>25.01434234538596</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -701,19 +701,19 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>34.56130347477666</v>
+        <v>34.75471983898068</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>25.35833807054252</v>
+        <v>29.02453657478259</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59.91964154531919</v>
+        <v>63.77925641376328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40.08035845468081</v>
+        <v>36.22074358623672</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>45.45285902814433</v>
+        <v>45.45285902814432</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>54.54714097185567</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>45.45285902814433</v>
+        <v>45.45285902814432</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>54.54714097185567</v>
@@ -827,13 +827,13 @@
         <v>76.6714706378159</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>23.3285293621841</v>
+        <v>23.32852936218411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76.6714706378159</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>23.3285293621841</v>
+        <v>23.32852936218411</v>
       </c>
     </row>
     <row r="11">
@@ -1005,7 +1005,7 @@
         <v>38.58306825283518</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>61.41693174716481</v>
+        <v>61.41693174716482</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>38.58306825283518</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>97.26179956602434</v>
+        <v>97.26179956602435</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>2.738200433975654</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>97.26179956602434</v>
+        <v>97.26179956602435</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>2.738200433975654</v>
@@ -1241,19 +1241,19 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>26.60785508826232</v>
+        <v>26.61778363352825</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>48.42178506433056</v>
+        <v>48.60998019431894</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75.02964015259288</v>
+        <v>75.22776382784718</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.97035984740713</v>
+        <v>24.7722361721528</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>16.75654037352567</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -701,19 +701,19 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>34.75471983898068</v>
+        <v>34.75472032625702</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>29.02453657478259</v>
+        <v>29.02453698171925</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63.77925641376328</v>
+        <v>63.77925730797627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36.22074358623672</v>
+        <v>36.22074269202373</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>77</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>43.27108330943184</v>
+        <v>43.27915450149072</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>38.29205176940727</v>
+        <v>38.28660371007192</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81.56313507883911</v>
+        <v>81.56575821156264</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.43686492116091</v>
+        <v>18.43424178843736</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1602506719951143</v>
@@ -1177,19 +1177,19 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
@@ -1241,19 +1241,19 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>26.61778363352825</v>
+        <v>26.61244782562956</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>48.60998019431894</v>
+        <v>48.61351479749467</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75.22776382784718</v>
+        <v>75.22596262312422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.7722361721528</v>
+        <v>24.77403737687578</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>16.75654037352567</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -123,9 +123,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +574,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Analysis Group</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -592,23 +589,25 @@
       <c r="K3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>21</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Area 21</t>
+        </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>14.21501162979527</v>
+        <v>14.80225942096207</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>68.94878186074772</v>
+        <v>69.85692867411942</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83.16379349054299</v>
+        <v>84.65918809508149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16.83620650945702</v>
+        <v>15.34081190491851</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.178653654593925</v>
@@ -627,23 +626,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>27</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Area 27</t>
+        </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.560106383556024</v>
+        <v>3.562651852288556</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>83.02398792990367</v>
+        <v>83.01185011623407</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86.58409431345969</v>
+        <v>86.57450196852263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.41590568654031</v>
+        <v>13.42549803147737</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>2.793232987766152</v>
@@ -662,23 +663,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>31</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Area 31</t>
+        </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>66.81238912731217</v>
+        <v>70.94956036620307</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.99945049165663</v>
+        <v>6.880884177898364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75.8118396189688</v>
+        <v>77.83044454410144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.18816038103119</v>
+        <v>22.16955545589856</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>52.16140789916761</v>
@@ -697,25 +700,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>34</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Area 34</t>
+        </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>34.75472032625702</v>
+        <v>36.04195041673638</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>29.02453698171925</v>
+        <v>28.94037208699331</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>36.22074269202373</v>
+        <v>35.01767749627032</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63.77925730797627</v>
+        <v>64.98232250372969</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36.22074269202373</v>
-      </c>
-      <c r="G7" s="7" t="n">
+        <v>35.01767749627032</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
@@ -732,25 +737,27 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
-        <v>37</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Area 37</t>
+        </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>5.389935808021984</v>
+        <v>5.307988846238611</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>53.64100303270093</v>
+        <v>49.1264353287182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>40.96906115927708</v>
+        <v>45.5655758250432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>59.03093884072291</v>
+        <v>54.43442417495681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40.96906115927708</v>
-      </c>
-      <c r="G8" s="7" t="n">
+        <v>45.5655758250432</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
@@ -767,23 +774,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
-        <v>41</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Area 41</t>
+        </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>2.258387509579761</v>
+        <v>1.990938784643311</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>66.76071367383751</v>
+        <v>67.23791219554505</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69.01910118341728</v>
+        <v>69.22885098018835</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.98089881658274</v>
+        <v>30.77114901981165</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.6639035696703423</v>
@@ -802,25 +811,27 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>47</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Area 47</t>
+        </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>6.332521257555844</v>
+        <v>5.916574091273504</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>39.53851405642543</v>
+        <v>37.95078743092397</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>54.12896468601873</v>
+        <v>56.13263847780252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45.87103531398127</v>
+        <v>43.86736152219747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54.12896468601873</v>
-      </c>
-      <c r="G10" s="7" t="n">
+        <v>56.13263847780252</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
@@ -837,338 +848,364 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>51</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Area 48,58,88</t>
+        </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>25.99140387354132</v>
+        <v>98.76864146081358</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>44.04745699154409</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>29.9611391349146</v>
+        <v>1.231358539186409</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70.03886086508541</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>29.9611391349146</v>
-      </c>
-      <c r="G11" s="5" t="n">
+        <v>99.99999999999999</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Area 51</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>22.63693111870174</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>37.95617950157607</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>39.4068893797222</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>60.59311062027781</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>39.4068893797222</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>7.308967266794347</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>70.41632166162654</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I12" s="5" t="n">
         <v>22.27471107157911</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J12" s="5" t="n">
         <v>77.72528892842089</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K12" s="5" t="n">
         <v>22.27471107157911</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>14.93902192521486</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>67.50435457160448</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>17.55662350318067</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>82.44337649681934</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>17.55662350318067</v>
-      </c>
-      <c r="G12" s="7" t="n">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Area 57</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>11.6785168296254</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>73.56344463189845</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.75803853847617</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>85.24196146152384</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.75803853847617</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>76.81229094059265</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I13" s="5" t="n">
         <v>23.18770905940735</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J13" s="5" t="n">
         <v>76.81229094059265</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K13" s="5" t="n">
         <v>23.18770905940735</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>31.35428380642543</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>41.27778074600292</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>27.36793544757166</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>72.63206455242835</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>27.36793544757166</v>
-      </c>
-      <c r="G13" s="5" t="n">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Area 61</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>25.13025641063614</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>35.27604004292039</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>39.59370354644347</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>60.40629645355654</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>39.59370354644347</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>12.7964975153495</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>40.05109167507333</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I14" s="5" t="n">
         <v>47.15241080957718</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J14" s="5" t="n">
         <v>52.84758919042283</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K14" s="5" t="n">
         <v>47.15241080957718</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>67</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>28.37653045781574</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>70.44263361813991</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1.180835924044367</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>98.81916407595565</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1.180835924044367</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>47.09360415973406</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>45.5390362139465</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>7.367359626319428</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>92.63264037368054</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>7.367359626319428</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>71</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Other Stocks</t>
+        </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>22.93056935485755</v>
+        <v>28.01784339225146</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.57459035111507</v>
+        <v>70.92687970838661</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49.50515970597262</v>
+        <v>98.94472310063807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50.49484029402739</v>
+        <v>1.055276899361936</v>
       </c>
       <c r="G15" s="5" t="n">
+        <v>55.35388548819073</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>39.90075852802333</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>4.745355983785955</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>95.25464401621406</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>4.745355983785955</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Area 67 - Salmon</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>19.7353802540078</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>70.87896192485682</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>90.61434217886463</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>9.38565782113537</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>77.68404519430511</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>22.31595480569489</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>77.68404519430511</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>22.31595480569489</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Area 71</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>22.53060390711235</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>24.39789750905031</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>53.07149858383732</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>46.92850141616267</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>53.07149858383732</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>14.49764598505068</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>46.91928576211414</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I17" s="5" t="n">
         <v>38.58306825283518</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J17" s="5" t="n">
         <v>61.41693174716482</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K17" s="5" t="n">
         <v>38.58306825283518</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>77</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>43.27915450149072</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>38.28660371007192</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>18.43424178843736</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>81.56575821156264</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>18.43424178843736</v>
-      </c>
-      <c r="G16" s="5" t="n">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Area 77</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>44.14287696843694</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>37.96299080166693</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.89413222989614</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>82.10586777010386</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.89413222989614</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>0.1602506719951143</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>98.80763324517071</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I18" s="5" t="n">
         <v>1.03211608283418</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J18" s="5" t="n">
         <v>98.96788391716582</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K18" s="5" t="n">
         <v>1.03211608283418</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>3.12626543235536</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>93.05288746522015</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>3.820847102424483</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>96.17915289757551</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>3.820847102424483</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>97.26179956602435</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>2.738200433975654</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>97.26179956602435</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>2.738200433975654</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>87</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>17.52496133821459</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>63.19024740213378</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>19.28479125965163</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>80.71520874034837</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>19.28479125965163</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>82.87427727893572</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>17.12572272106429</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>82.87427727893572</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>17.12572272106429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>48,58,88</t>
+          <t>Area 81</t>
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>98.47978014980617</v>
+        <v>2.381487326649866</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1.520219850193832</v>
-      </c>
-      <c r="D19" s="7" t="n">
+        <v>93.82770087067527</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3.790811802674839</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>96.20918819732513</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3.790811802674839</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-      <c r="I19" s="5" t="n"/>
-      <c r="J19" s="5" t="n"/>
-      <c r="K19" s="5" t="n"/>
+      <c r="H19" s="5" t="n">
+        <v>97.26179956602435</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>2.738200433975654</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>97.26179956602435</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>2.738200433975654</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Area 87</t>
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>19.7353802540078</v>
+        <v>17.48907833691633</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>70.87896192485682</v>
+        <v>62.76258548396102</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.38565782113537</v>
+        <v>19.74833617912266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90.61434217886463</v>
+        <v>80.25166382087734</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9.38565782113537</v>
-      </c>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-      <c r="I20" s="5" t="n"/>
-      <c r="J20" s="5" t="n"/>
-      <c r="K20" s="5" t="n"/>
+        <v>19.74833617912266</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>82.87427727893572</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>17.12572272106429</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>82.87427727893572</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>17.12572272106429</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1177,19 +1214,19 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>44.50384758194412</v>
+        <v>43.18584564785131</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>43.06757191525973</v>
+        <v>38.10630193240962</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87.57141949720386</v>
+        <v>81.29214758026093</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.42858050279615</v>
+        <v>18.70785241973908</v>
       </c>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
@@ -1241,19 +1278,19 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>26.61244782562956</v>
+        <v>25.28937267958355</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>48.61351479749467</v>
+        <v>47.70535135074126</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75.22596262312422</v>
+        <v>72.99472403032482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24.77403737687578</v>
+        <v>27.00527596967519</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>16.75654037352567</v>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>14.80225942096207</v>
+        <v>14.78917725470217</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>69.85692867411942</v>
+        <v>69.8470528457707</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84.65918809508149</v>
+        <v>84.63623010047289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15.34081190491851</v>
+        <v>15.36376989952713</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.178653654593925</v>
@@ -632,19 +632,19 @@
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>3.562651852288556</v>
+        <v>3.562607455470455</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>83.01185011623407</v>
+        <v>83.01206181803137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86.57450196852263</v>
+        <v>86.57466927350183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.42549803147737</v>
+        <v>13.42533072649818</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>2.793232987766152</v>
@@ -669,34 +669,34 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>70.94956036620307</v>
+        <v>67.41422215737725</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.880884177898364</v>
+        <v>10.61030334214265</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77.83044454410144</v>
+        <v>78.02452549951991</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.16955545589856</v>
+        <v>21.97547450048009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.16140789916761</v>
+        <v>59.12162881401942</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>33.17522117054031</v>
+        <v>31.43401784822161</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.66337093029206</v>
+        <v>9.444353337758965</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>85.33662906970793</v>
+        <v>90.55564666224103</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.66337093029206</v>
+        <v>9.444353337758965</v>
       </c>
     </row>
     <row r="7">
@@ -706,19 +706,19 @@
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>36.04195041673638</v>
+        <v>35.64762620614589</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>28.94037208699331</v>
+        <v>29.94298223981509</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64.98232250372969</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0</v>
@@ -743,34 +743,34 @@
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>5.307988846238611</v>
+        <v>5.175443209067041</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>49.1264353287182</v>
+        <v>51.73877639973622</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54.43442417495681</v>
+        <v>56.91421960880326</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45.5655758250432</v>
+        <v>43.08578039119675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>45.45285902814432</v>
+        <v>45.45285902814433</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>54.54714097185567</v>
+        <v>54.54714097185568</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>45.45285902814432</v>
+        <v>45.45285902814433</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>54.54714097185567</v>
+        <v>54.54714097185568</v>
       </c>
     </row>
     <row r="9">
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>1.990938784643311</v>
+        <v>2.31022930345436</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>67.23791219554505</v>
+        <v>66.07998198856063</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69.22885098018835</v>
+        <v>68.390211292015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.77114901981165</v>
+        <v>31.60978870798501</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.6639035696703423</v>
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -881,34 +881,34 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>22.63693111870174</v>
+        <v>25.6999608568784</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>37.95617950157607</v>
+        <v>44.94888757467277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60.59311062027781</v>
+        <v>70.64884843155117</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39.4068893797222</v>
+        <v>29.35115156844882</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.308967266794347</v>
+        <v>7.585761214524217</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>70.41632166162654</v>
+        <v>70.8807545577062</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>22.27471107157911</v>
+        <v>21.5334842277696</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>77.72528892842089</v>
+        <v>78.46651577223041</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.27471107157911</v>
+        <v>21.5334842277696</v>
       </c>
     </row>
     <row r="13">
@@ -918,34 +918,34 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>11.6785168296254</v>
+        <v>9.278341356044031</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>73.56344463189845</v>
+        <v>73.64863449203855</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85.24196146152384</v>
+        <v>82.92697584808258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14.75803853847617</v>
+        <v>17.07302415191741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>76.81229094059265</v>
+        <v>76.75709720864552</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>23.18770905940735</v>
+        <v>23.24290279135448</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>76.81229094059265</v>
+        <v>76.75709720864552</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>23.18770905940735</v>
+        <v>23.24290279135448</v>
       </c>
     </row>
     <row r="14">
@@ -955,31 +955,31 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571485</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60.40629645355654</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>12.7964975153495</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.05109167507333</v>
+        <v>40.05109167507332</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>47.15241080957718</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>52.84758919042283</v>
+        <v>52.84758919042282</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>47.15241080957718</v>
@@ -988,44 +988,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Other Stocks</t>
+          <t>Area 67</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>28.01784339225146</v>
+        <v>27.92220335605353</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>70.92687970838661</v>
+        <v>71.07840539460011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98.94472310063807</v>
+        <v>99.00060875065364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.055276899361936</v>
+        <v>0.9993912493463557</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>55.35388548819073</v>
+        <v>47.09360415973406</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>39.90075852802333</v>
+        <v>45.5390362139465</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>4.745355983785955</v>
+        <v>7.367359626319428</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>95.25464401621406</v>
+        <v>92.63264037368054</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.745355983785955</v>
+        <v>7.367359626319428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Area 67 - Salmon</t>
+          <t>Area 67 - Pacific Salmon</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
@@ -1043,21 +1043,11 @@
       <c r="F16" s="5" t="n">
         <v>9.38565782113537</v>
       </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>77.68404519430511</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>22.31595480569489</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>77.68404519430511</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>22.31595480569489</v>
-      </c>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="5" t="n"/>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1066,19 +1056,19 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22.53060390711235</v>
+        <v>22.15505684525351</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>24.39789750905031</v>
+        <v>22.79836957709453</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46.92850141616267</v>
+        <v>44.95342642234804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53.07149858383732</v>
+        <v>55.04657357765197</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>14.49764598505068</v>
@@ -1103,19 +1093,19 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0.1602506719951143</v>
@@ -1140,19 +1130,19 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>2.381487326649866</v>
+        <v>2.717606459648396</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>93.82770087067527</v>
+        <v>92.9802613568873</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96.20918819732513</v>
+        <v>95.69786781653569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.790811802674839</v>
+        <v>4.302132183464314</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0</v>
@@ -1161,13 +1151,13 @@
         <v>97.26179956602435</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>2.738200433975654</v>
+        <v>2.738200433975653</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97.26179956602435</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>2.738200433975654</v>
+        <v>2.738200433975653</v>
       </c>
     </row>
     <row r="20">
@@ -1177,19 +1167,19 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>17.48907833691633</v>
+        <v>17.66785303263738</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>62.76258548396102</v>
+        <v>63.40503144859446</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80.25166382087734</v>
+        <v>81.07288448123184</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19.74833617912266</v>
+        <v>18.92711551876817</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0</v>
@@ -1214,19 +1204,19 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>43.18584564785131</v>
+        <v>39.62654313178409</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>38.10630193240962</v>
+        <v>42.36082199153995</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>81.29214758026093</v>
+        <v>81.98736512332404</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18.70785241973908</v>
+        <v>18.01263487667597</v>
       </c>
       <c r="G21" s="5" t="n"/>
       <c r="H21" s="5" t="n"/>
@@ -1278,34 +1268,34 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>25.28937267958355</v>
+        <v>26.49068634663481</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>47.70535135074126</v>
+        <v>50.69341175754067</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72.99472403032482</v>
+        <v>77.18409810417548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27.00527596967519</v>
+        <v>22.81590189582453</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>16.75654037352567</v>
+        <v>16.80724713703558</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>58.22911728108837</v>
+        <v>58.25325850372658</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>25.01434234538596</v>
+        <v>24.93949435923783</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>74.98565765461404</v>
+        <v>75.06050564076216</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.01434234538596</v>
+        <v>24.93949435923783</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -610,19 +610,19 @@
         <v>15.36376989952713</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>4.178653654593925</v>
+        <v>4.173663381228784</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>85.55454704186324</v>
+        <v>85.52045219198894</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>10.26679930354283</v>
+        <v>10.30588442678228</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>89.73320069645717</v>
+        <v>89.69411557321772</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.26679930354283</v>
+        <v>10.30588442678228</v>
       </c>
     </row>
     <row r="5">
@@ -647,19 +647,19 @@
         <v>13.42533072649818</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.793232987766152</v>
+        <v>2.793183387768043</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>78.97560440655828</v>
+        <v>78.97597774096548</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>18.23116260567558</v>
+        <v>18.23083887126648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>81.76883739432442</v>
+        <v>81.76916112873351</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.23116260567558</v>
+        <v>18.23083887126648</v>
       </c>
     </row>
     <row r="6">
@@ -684,19 +684,19 @@
         <v>21.97547450048009</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>59.12162881401942</v>
+        <v>58.3917026273341</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.43401784822161</v>
+        <v>31.41385117946972</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.444353337758965</v>
+        <v>10.19444619319619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>90.55564666224103</v>
+        <v>89.80555380680381</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.444353337758965</v>
+        <v>10.19444619319619</v>
       </c>
     </row>
     <row r="7">
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>36.59405010464138</v>
+        <v>36.82201188022926</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>63.40594989535864</v>
+        <v>63.17798811977073</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>36.59405010464138</v>
+        <v>36.82201188022926</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>63.40594989535864</v>
+        <v>63.17798811977073</v>
       </c>
     </row>
     <row r="8">
@@ -761,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>45.45285902814433</v>
+        <v>45.46811382582053</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>54.54714097185568</v>
+        <v>54.53188617417947</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>45.45285902814433</v>
+        <v>45.46811382582053</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>54.54714097185568</v>
+        <v>54.53188617417947</v>
       </c>
     </row>
     <row r="9">
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>76.6714706378159</v>
+        <v>76.69005133838554</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>23.32852936218411</v>
+        <v>23.30994866161446</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>76.6714706378159</v>
+        <v>76.69005133838554</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>23.32852936218411</v>
+        <v>23.30994866161446</v>
       </c>
     </row>
     <row r="11">
@@ -896,19 +896,19 @@
         <v>29.35115156844882</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.585761214524217</v>
+        <v>7.013971246565509</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>70.8807545577062</v>
+        <v>64.54719752949582</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>21.5334842277696</v>
+        <v>28.43883122393868</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>78.46651577223041</v>
+        <v>71.56116877606132</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.5334842277696</v>
+        <v>28.43883122393868</v>
       </c>
     </row>
     <row r="13">
@@ -936,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>76.75709720864552</v>
+        <v>75.45829115470066</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>23.24290279135448</v>
+        <v>24.54170884529933</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>76.75709720864552</v>
+        <v>75.45829115470066</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>23.24290279135448</v>
+        <v>24.54170884529933</v>
       </c>
     </row>
     <row r="14">
@@ -973,13 +973,13 @@
         <v>12.7964975153495</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>40.05109167507332</v>
+        <v>40.05109167507333</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>47.15241080957718</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>52.84758919042282</v>
+        <v>52.84758919042283</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>47.15241080957718</v>
@@ -1007,19 +1007,19 @@
         <v>0.9993912493463557</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>47.09360415973406</v>
+        <v>47.07160509662231</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>45.5390362139465</v>
+        <v>45.55703176216787</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.367359626319428</v>
+        <v>7.371363141209828</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>92.63264037368054</v>
+        <v>92.62863685879017</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.367359626319428</v>
+        <v>7.371363141209828</v>
       </c>
     </row>
     <row r="16">
@@ -1071,19 +1071,19 @@
         <v>55.04657357765197</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>14.49764598505068</v>
+        <v>13.5577799139534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.91928576211414</v>
+        <v>50.36044872010347</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>38.58306825283518</v>
+        <v>36.08177136594313</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>61.41693174716482</v>
+        <v>63.91822863405687</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>38.58306825283518</v>
+        <v>36.08177136594313</v>
       </c>
     </row>
     <row r="18">
@@ -1148,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>97.26179956602435</v>
+        <v>97.25735502488305</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>2.738200433975653</v>
+        <v>2.742644975116943</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>97.26179956602435</v>
+        <v>97.25735502488305</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>2.738200433975653</v>
+        <v>2.742644975116943</v>
       </c>
     </row>
     <row r="20">
@@ -1283,19 +1283,19 @@
         <v>22.81590189582453</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>16.80724713703558</v>
+        <v>16.66458784954724</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>58.25325850372658</v>
+        <v>58.29425941546439</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>24.93949435923783</v>
+        <v>25.04115273498839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>75.06050564076216</v>
+        <v>74.95884726501163</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>24.93949435923783</v>
+        <v>25.04115273498839</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/comparison_by_landings.xlsx
+++ b/output/aggregate_tables/comparison_by_landings.xlsx
@@ -669,19 +669,19 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>67.41422215737725</v>
+        <v>67.33698272059627</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.61030334214265</v>
+        <v>10.59597514994378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78.02452549951991</v>
+        <v>77.93295787054004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.97547450048009</v>
+        <v>22.06704212945996</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>58.3917026273341</v>
@@ -780,19 +780,19 @@
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>2.31022930345436</v>
+        <v>2.309312269950301</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>66.07998198856063</v>
+        <v>66.09165396408049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68.390211292015</v>
+        <v>68.40096623403079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31.60978870798501</v>
+        <v>31.59903376596921</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>0.6639035696703423</v>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>26.49068634663481</v>
+        <v>26.49002497454721</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>50.69341175754067</v>
+        <v>50.69309849118402</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77.18409810417548</v>
+        <v>77.18312346573123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22.81590189582453</v>
+        <v>22.81687653426877</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>16.66458784954724</v>
